--- a/data/pca/factorExposure/factorExposure_2016-01-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-01-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01963201804061562</v>
+        <v>0.0184720112396515</v>
       </c>
       <c r="C2">
-        <v>-0.03882330408388859</v>
+        <v>0.03916574199395861</v>
       </c>
       <c r="D2">
-        <v>0.09659766032673894</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.118999910844732</v>
+      </c>
+      <c r="E2">
+        <v>-0.07985867469662145</v>
+      </c>
+      <c r="F2">
+        <v>-0.007758520100831911</v>
+      </c>
+      <c r="G2">
+        <v>0.0472957229453322</v>
+      </c>
+      <c r="H2">
+        <v>-0.09931743708795378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01649570273091913</v>
+        <v>0.009474126432766265</v>
       </c>
       <c r="C3">
-        <v>-0.06083338362967744</v>
+        <v>0.03560515361144689</v>
       </c>
       <c r="D3">
-        <v>0.1413207141245197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.08036664244780951</v>
+      </c>
+      <c r="E3">
+        <v>-0.08792720864909884</v>
+      </c>
+      <c r="F3">
+        <v>-0.04004264517476428</v>
+      </c>
+      <c r="G3">
+        <v>0.0908820344816073</v>
+      </c>
+      <c r="H3">
+        <v>-0.03090089480729944</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0516346768925333</v>
+        <v>0.05597336921344385</v>
       </c>
       <c r="C4">
-        <v>-0.03930403915450945</v>
+        <v>0.06547490690818777</v>
       </c>
       <c r="D4">
-        <v>0.125231565823557</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1358158845982192</v>
+      </c>
+      <c r="E4">
+        <v>-0.05759288921493753</v>
+      </c>
+      <c r="F4">
+        <v>-0.02048103718528427</v>
+      </c>
+      <c r="G4">
+        <v>-0.02242010527562856</v>
+      </c>
+      <c r="H4">
+        <v>0.03145091519862792</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04637507751676319</v>
+        <v>0.04216751121633428</v>
       </c>
       <c r="C6">
-        <v>-0.01121796635421643</v>
+        <v>0.02621995062261775</v>
       </c>
       <c r="D6">
-        <v>0.1236321093926047</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1254166227352664</v>
+      </c>
+      <c r="E6">
+        <v>-0.04134668712434139</v>
+      </c>
+      <c r="F6">
+        <v>-0.01390090105742184</v>
+      </c>
+      <c r="G6">
+        <v>0.01210393188846609</v>
+      </c>
+      <c r="H6">
+        <v>-0.009531259073130497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02246203671961241</v>
+        <v>0.01646445034982053</v>
       </c>
       <c r="C7">
-        <v>-0.01207521658457246</v>
+        <v>0.03081669926248642</v>
       </c>
       <c r="D7">
-        <v>0.08616553443893826</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09210174907577731</v>
+      </c>
+      <c r="E7">
+        <v>-0.04292483066744541</v>
+      </c>
+      <c r="F7">
+        <v>-0.01372926262256255</v>
+      </c>
+      <c r="G7">
+        <v>-0.03230292564784314</v>
+      </c>
+      <c r="H7">
+        <v>-0.102738661149933</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009397863509312871</v>
+        <v>0.008583621156912986</v>
       </c>
       <c r="C8">
-        <v>-0.02694807673020051</v>
+        <v>0.0352524791675504</v>
       </c>
       <c r="D8">
-        <v>0.06345468080003029</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07295232580381712</v>
+      </c>
+      <c r="E8">
+        <v>-0.03952203677177642</v>
+      </c>
+      <c r="F8">
+        <v>-0.03514229244452262</v>
+      </c>
+      <c r="G8">
+        <v>0.0008411189482548325</v>
+      </c>
+      <c r="H8">
+        <v>-0.03291173500621945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04047016746135938</v>
+        <v>0.04240582666703276</v>
       </c>
       <c r="C9">
-        <v>-0.03419531058008484</v>
+        <v>0.05685697224219337</v>
       </c>
       <c r="D9">
-        <v>0.1036729459656463</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1156157156550537</v>
+      </c>
+      <c r="E9">
+        <v>-0.04545433708217122</v>
+      </c>
+      <c r="F9">
+        <v>-0.001465197930781696</v>
+      </c>
+      <c r="G9">
+        <v>-0.01971627762756331</v>
+      </c>
+      <c r="H9">
+        <v>-0.00555960109228497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.09071145938513535</v>
+        <v>0.1272072557097494</v>
       </c>
       <c r="C10">
-        <v>0.2007023198556722</v>
+        <v>-0.1957272716446914</v>
       </c>
       <c r="D10">
-        <v>0.001061967708455895</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0003338352641043476</v>
+      </c>
+      <c r="E10">
+        <v>-0.05392134285976965</v>
+      </c>
+      <c r="F10">
+        <v>-0.01303591458081053</v>
+      </c>
+      <c r="G10">
+        <v>-0.03614109143746133</v>
+      </c>
+      <c r="H10">
+        <v>0.01326797612523703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03494073072199558</v>
+        <v>0.0296706901733202</v>
       </c>
       <c r="C11">
-        <v>-0.03663836871998984</v>
+        <v>0.0428193188679213</v>
       </c>
       <c r="D11">
-        <v>0.05937865392185412</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05903129528513378</v>
+      </c>
+      <c r="E11">
+        <v>-0.006606466810000806</v>
+      </c>
+      <c r="F11">
+        <v>-0.006364946647542224</v>
+      </c>
+      <c r="G11">
+        <v>-0.008892505451516214</v>
+      </c>
+      <c r="H11">
+        <v>-0.05187870256168605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03947027041187139</v>
+        <v>0.03379593449663708</v>
       </c>
       <c r="C12">
-        <v>-0.03345923423377133</v>
+        <v>0.04272204799806921</v>
       </c>
       <c r="D12">
-        <v>0.05732837657340811</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.0558619844301022</v>
+      </c>
+      <c r="E12">
+        <v>-0.01876984385937118</v>
+      </c>
+      <c r="F12">
+        <v>-0.001215085194765683</v>
+      </c>
+      <c r="G12">
+        <v>-0.0110582308358392</v>
+      </c>
+      <c r="H12">
+        <v>-0.06112467583131553</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01544518004460041</v>
+        <v>0.02009215663564394</v>
       </c>
       <c r="C13">
-        <v>-0.02642029894051245</v>
+        <v>0.03878570936348543</v>
       </c>
       <c r="D13">
-        <v>0.1237413221750856</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1403902967705514</v>
+      </c>
+      <c r="E13">
+        <v>-0.07697514516828802</v>
+      </c>
+      <c r="F13">
+        <v>-0.024609314609503</v>
+      </c>
+      <c r="G13">
+        <v>-0.01089233057341527</v>
+      </c>
+      <c r="H13">
+        <v>-0.09212695670656187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01058984476963215</v>
+        <v>0.007122706375006454</v>
       </c>
       <c r="C14">
-        <v>-0.01006096995971086</v>
+        <v>0.02223571995253861</v>
       </c>
       <c r="D14">
-        <v>0.07755077340033949</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.08303373946078996</v>
+      </c>
+      <c r="E14">
+        <v>-0.04529998600025775</v>
+      </c>
+      <c r="F14">
+        <v>0.01383872289633722</v>
+      </c>
+      <c r="G14">
+        <v>-0.01065438630815645</v>
+      </c>
+      <c r="H14">
+        <v>-0.0998124666338938</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001781338567520598</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.008022177492098763</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.02668648985092012</v>
+      </c>
+      <c r="E15">
+        <v>-0.006899814982137915</v>
+      </c>
+      <c r="F15">
+        <v>0.003226401968671569</v>
+      </c>
+      <c r="G15">
+        <v>0.004740066133011069</v>
+      </c>
+      <c r="H15">
+        <v>-0.01352298123869707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03644047279894952</v>
+        <v>0.03057041996339299</v>
       </c>
       <c r="C16">
-        <v>-0.04003823999908756</v>
+        <v>0.04394266034669686</v>
       </c>
       <c r="D16">
-        <v>0.06429062165656312</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06079577869334969</v>
+      </c>
+      <c r="E16">
+        <v>-0.02020896697649474</v>
+      </c>
+      <c r="F16">
+        <v>0.007261790455812116</v>
+      </c>
+      <c r="G16">
+        <v>-0.005470508850032919</v>
+      </c>
+      <c r="H16">
+        <v>-0.05939691980325792</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01209532079331147</v>
+        <v>0.01178590226985858</v>
       </c>
       <c r="C19">
-        <v>-0.02647415735380051</v>
+        <v>0.02584885038362393</v>
       </c>
       <c r="D19">
-        <v>0.1678013176602149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1309968815826751</v>
+      </c>
+      <c r="E19">
+        <v>-0.07103949408647342</v>
+      </c>
+      <c r="F19">
+        <v>0.02825161883747454</v>
+      </c>
+      <c r="G19">
+        <v>0.008372032172518843</v>
+      </c>
+      <c r="H19">
+        <v>-0.05508594641298359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.02088977673643924</v>
+        <v>0.01667381385946676</v>
       </c>
       <c r="C20">
-        <v>-0.02339294360844689</v>
+        <v>0.03466996644474894</v>
       </c>
       <c r="D20">
-        <v>0.0890573813621674</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.09570324193900843</v>
+      </c>
+      <c r="E20">
+        <v>-0.06297114587860778</v>
+      </c>
+      <c r="F20">
+        <v>0.006224446532369429</v>
+      </c>
+      <c r="G20">
+        <v>-0.004452660778232545</v>
+      </c>
+      <c r="H20">
+        <v>-0.05320864314375055</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01046730676201236</v>
+        <v>0.01467772896399126</v>
       </c>
       <c r="C21">
-        <v>-0.01686327637518572</v>
+        <v>0.03436502815372599</v>
       </c>
       <c r="D21">
-        <v>0.1216988953853212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1329311717347018</v>
+      </c>
+      <c r="E21">
+        <v>-0.09910787193416751</v>
+      </c>
+      <c r="F21">
+        <v>0.01291263855762146</v>
+      </c>
+      <c r="G21">
+        <v>-0.05341911176544689</v>
+      </c>
+      <c r="H21">
+        <v>-0.1044476989303668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.00227944854997412</v>
+        <v>0.005746576435562752</v>
       </c>
       <c r="C22">
-        <v>-0.01408919561210883</v>
+        <v>0.03696277133685114</v>
       </c>
       <c r="D22">
-        <v>0.06023680289913914</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.120720586504715</v>
+      </c>
+      <c r="E22">
+        <v>-0.03495345410183803</v>
+      </c>
+      <c r="F22">
+        <v>-0.07379399431765359</v>
+      </c>
+      <c r="G22">
+        <v>0.05116533874731566</v>
+      </c>
+      <c r="H22">
+        <v>0.01703120600087053</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.002328339936626991</v>
+        <v>0.005841353990256268</v>
       </c>
       <c r="C23">
-        <v>-0.01390626727224861</v>
+        <v>0.03738264858275322</v>
       </c>
       <c r="D23">
-        <v>0.0598880233048078</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1201562074259238</v>
+      </c>
+      <c r="E23">
+        <v>-0.03515993316533016</v>
+      </c>
+      <c r="F23">
+        <v>-0.07370656448409069</v>
+      </c>
+      <c r="G23">
+        <v>0.05032918768128266</v>
+      </c>
+      <c r="H23">
+        <v>0.01736693760357167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03621337006487178</v>
+        <v>0.03281289139660486</v>
       </c>
       <c r="C24">
-        <v>-0.04240617182186796</v>
+        <v>0.05326879764564765</v>
       </c>
       <c r="D24">
-        <v>0.06697038815560574</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06516760262682375</v>
+      </c>
+      <c r="E24">
+        <v>-0.02364010722939089</v>
+      </c>
+      <c r="F24">
+        <v>0.004521140989307873</v>
+      </c>
+      <c r="G24">
+        <v>-0.01735648474890974</v>
+      </c>
+      <c r="H24">
+        <v>-0.06750405743829818</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04279193764043147</v>
+        <v>0.03734338850402116</v>
       </c>
       <c r="C25">
-        <v>-0.04360649976810837</v>
+        <v>0.05114357343955232</v>
       </c>
       <c r="D25">
-        <v>0.06536678006800811</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06166217524276405</v>
+      </c>
+      <c r="E25">
+        <v>-0.02435806951795655</v>
+      </c>
+      <c r="F25">
+        <v>-0.007747894084551421</v>
+      </c>
+      <c r="G25">
+        <v>-0.02180643342502808</v>
+      </c>
+      <c r="H25">
+        <v>-0.05443504929047419</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.024189631649822</v>
+        <v>0.02173366255471187</v>
       </c>
       <c r="C26">
-        <v>-0.004464154346677579</v>
+        <v>0.01659945898175913</v>
       </c>
       <c r="D26">
-        <v>0.053213540880778</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06416743824184612</v>
+      </c>
+      <c r="E26">
+        <v>-0.03083035839016303</v>
+      </c>
+      <c r="F26">
+        <v>0.004560766959118518</v>
+      </c>
+      <c r="G26">
+        <v>-0.0008225308456274651</v>
+      </c>
+      <c r="H26">
+        <v>-0.05637831139482046</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.126375528022041</v>
+        <v>0.1799008114961121</v>
       </c>
       <c r="C28">
-        <v>0.2811028148195244</v>
+        <v>-0.2616793084256469</v>
       </c>
       <c r="D28">
-        <v>-0.03417046452762705</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01298783790438824</v>
+      </c>
+      <c r="E28">
+        <v>-0.07049766144485953</v>
+      </c>
+      <c r="F28">
+        <v>-0.002486339014817816</v>
+      </c>
+      <c r="G28">
+        <v>-0.07524754834290757</v>
+      </c>
+      <c r="H28">
+        <v>0.005092639481515097</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.003519338805546367</v>
+        <v>0.005842191008799455</v>
       </c>
       <c r="C29">
-        <v>-0.0102259775054247</v>
+        <v>0.02037296613323821</v>
       </c>
       <c r="D29">
-        <v>0.06003672057555563</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.07649055841820381</v>
+      </c>
+      <c r="E29">
+        <v>-0.04830820868767007</v>
+      </c>
+      <c r="F29">
+        <v>-0.0002751067914346161</v>
+      </c>
+      <c r="G29">
+        <v>-0.02675945880955102</v>
+      </c>
+      <c r="H29">
+        <v>-0.09792099674358372</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04544935653684525</v>
+        <v>0.04509039200929935</v>
       </c>
       <c r="C30">
-        <v>-0.03627833620419615</v>
+        <v>0.06099145665404618</v>
       </c>
       <c r="D30">
-        <v>0.1612096549569949</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1737030683647887</v>
+      </c>
+      <c r="E30">
+        <v>-0.03296791477049257</v>
+      </c>
+      <c r="F30">
+        <v>-0.002265121810257885</v>
+      </c>
+      <c r="G30">
+        <v>0.03794798927349196</v>
+      </c>
+      <c r="H30">
+        <v>-0.01697445399063589</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06680210487574213</v>
+        <v>0.05899301966994502</v>
       </c>
       <c r="C31">
-        <v>-0.0450968327909949</v>
+        <v>0.07028056077559389</v>
       </c>
       <c r="D31">
-        <v>0.06065341550883119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05145818657817246</v>
+      </c>
+      <c r="E31">
+        <v>-0.04338698292498432</v>
+      </c>
+      <c r="F31">
+        <v>-0.04112158544616321</v>
+      </c>
+      <c r="G31">
+        <v>-0.01024334247459642</v>
+      </c>
+      <c r="H31">
+        <v>-0.02515539461678223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.000328004117893644</v>
+        <v>0.01005536613986797</v>
       </c>
       <c r="C32">
-        <v>0.001460500523814478</v>
+        <v>0.01748303619264642</v>
       </c>
       <c r="D32">
-        <v>0.06128089284514327</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0918628206836872</v>
+      </c>
+      <c r="E32">
+        <v>-0.09136652975982264</v>
+      </c>
+      <c r="F32">
+        <v>0.002704422476098516</v>
+      </c>
+      <c r="G32">
+        <v>-0.06169204623698389</v>
+      </c>
+      <c r="H32">
+        <v>-0.08613107216522908</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02840696876879822</v>
+        <v>0.02552492135650828</v>
       </c>
       <c r="C33">
-        <v>-0.0259483322967487</v>
+        <v>0.0435360237315901</v>
       </c>
       <c r="D33">
-        <v>0.1343256565236206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1326931665143709</v>
+      </c>
+      <c r="E33">
+        <v>-0.05769998780149603</v>
+      </c>
+      <c r="F33">
+        <v>-0.01721209254308802</v>
+      </c>
+      <c r="G33">
+        <v>-0.00904319593554672</v>
+      </c>
+      <c r="H33">
+        <v>-0.06295890919500557</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03239381008298752</v>
+        <v>0.02977879844564597</v>
       </c>
       <c r="C34">
-        <v>-0.05174420957087247</v>
+        <v>0.05962119638551792</v>
       </c>
       <c r="D34">
-        <v>0.06274939335246249</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05898020115555824</v>
+      </c>
+      <c r="E34">
+        <v>-0.005713257563246324</v>
+      </c>
+      <c r="F34">
+        <v>0.003318582967477802</v>
+      </c>
+      <c r="G34">
+        <v>-0.02027178435269895</v>
+      </c>
+      <c r="H34">
+        <v>-0.07334054973539432</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0005225965756985458</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0002357344352574258</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.002891386083718944</v>
+      </c>
+      <c r="E35">
+        <v>-0.000568950272850503</v>
+      </c>
+      <c r="F35">
+        <v>8.151623833652442e-06</v>
+      </c>
+      <c r="G35">
+        <v>-0.0002419083152920293</v>
+      </c>
+      <c r="H35">
+        <v>-0.002867900262872757</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02162558816076961</v>
+        <v>0.01879236406745479</v>
       </c>
       <c r="C36">
-        <v>-0.0006227089779320131</v>
+        <v>0.01448690256288906</v>
       </c>
       <c r="D36">
-        <v>0.07021264030281001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.07649786906068839</v>
+      </c>
+      <c r="E36">
+        <v>-0.04156057933001606</v>
+      </c>
+      <c r="F36">
+        <v>0.003693041383262641</v>
+      </c>
+      <c r="G36">
+        <v>-0.0153384363664579</v>
+      </c>
+      <c r="H36">
+        <v>-0.0491877858547283</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03033298075557733</v>
+        <v>0.02392307813683598</v>
       </c>
       <c r="C38">
-        <v>-0.02813044536244063</v>
+        <v>0.02675929963740956</v>
       </c>
       <c r="D38">
-        <v>0.06032904638320347</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0623023012265362</v>
+      </c>
+      <c r="E38">
+        <v>-0.04319492476719743</v>
+      </c>
+      <c r="F38">
+        <v>0.003935320056077404</v>
+      </c>
+      <c r="G38">
+        <v>0.03678167185238461</v>
+      </c>
+      <c r="H38">
+        <v>-0.03626550940022622</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04349615927405146</v>
+        <v>0.03876384504511308</v>
       </c>
       <c r="C39">
-        <v>-0.05264069517084694</v>
+        <v>0.06402086254290623</v>
       </c>
       <c r="D39">
-        <v>0.08908971314738599</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.102307260421912</v>
+      </c>
+      <c r="E39">
+        <v>-0.02260666440509715</v>
+      </c>
+      <c r="F39">
+        <v>0.02196353411735086</v>
+      </c>
+      <c r="G39">
+        <v>-0.003060107341972495</v>
+      </c>
+      <c r="H39">
+        <v>-0.08627092373867</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01892175413142226</v>
+        <v>0.01573744877566842</v>
       </c>
       <c r="C40">
-        <v>-0.03761413543604521</v>
+        <v>0.03705453557499083</v>
       </c>
       <c r="D40">
-        <v>0.07824978321745076</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.08414858063300543</v>
+      </c>
+      <c r="E40">
+        <v>-0.08333047224483998</v>
+      </c>
+      <c r="F40">
+        <v>-0.05353830388663283</v>
+      </c>
+      <c r="G40">
+        <v>0.01578609447319689</v>
+      </c>
+      <c r="H40">
+        <v>-0.1561232818995183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02600947140330582</v>
+        <v>0.02337885123294834</v>
       </c>
       <c r="C41">
-        <v>0.006365904218848956</v>
+        <v>0.008904309956844469</v>
       </c>
       <c r="D41">
-        <v>0.07155950779954343</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05883071094453395</v>
+      </c>
+      <c r="E41">
+        <v>-0.05652784108123459</v>
+      </c>
+      <c r="F41">
+        <v>0.00174162322829453</v>
+      </c>
+      <c r="G41">
+        <v>0.003088391765619005</v>
+      </c>
+      <c r="H41">
+        <v>-0.04178214542125437</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.03579948257897386</v>
+        <v>0.02620296050348497</v>
       </c>
       <c r="C43">
-        <v>-0.004274830775415493</v>
+        <v>0.01848431913150744</v>
       </c>
       <c r="D43">
-        <v>0.1091880758460601</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08894718745445074</v>
+      </c>
+      <c r="E43">
+        <v>-0.04431474847601478</v>
+      </c>
+      <c r="F43">
+        <v>-0.004903690830791791</v>
+      </c>
+      <c r="G43">
+        <v>0.003451357188648219</v>
+      </c>
+      <c r="H43">
+        <v>-0.05994832406645154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01408443084944166</v>
+        <v>0.01753118442007968</v>
       </c>
       <c r="C44">
-        <v>-0.03920154987032309</v>
+        <v>0.0420932539694084</v>
       </c>
       <c r="D44">
-        <v>0.07994117478697771</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09471679641941989</v>
+      </c>
+      <c r="E44">
+        <v>-0.08013650500150511</v>
+      </c>
+      <c r="F44">
+        <v>0.003011891349166128</v>
+      </c>
+      <c r="G44">
+        <v>-0.01944433179676065</v>
+      </c>
+      <c r="H44">
+        <v>-0.06899437275394826</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02005360314400306</v>
+        <v>0.01651945740760121</v>
       </c>
       <c r="C46">
-        <v>-0.01198898996889938</v>
+        <v>0.0276395009559175</v>
       </c>
       <c r="D46">
-        <v>0.07049075486691196</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.08641763878405834</v>
+      </c>
+      <c r="E46">
+        <v>-0.05069010923244894</v>
+      </c>
+      <c r="F46">
+        <v>0.02192060668437704</v>
+      </c>
+      <c r="G46">
+        <v>-0.03473160110139913</v>
+      </c>
+      <c r="H46">
+        <v>-0.09694840024447333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09396225022845341</v>
+        <v>0.08856763901822204</v>
       </c>
       <c r="C47">
-        <v>-0.06721234088574816</v>
+        <v>0.08712380316117756</v>
       </c>
       <c r="D47">
-        <v>0.03492089884109027</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.0312721498745834</v>
+      </c>
+      <c r="E47">
+        <v>-0.03798325629386352</v>
+      </c>
+      <c r="F47">
+        <v>-0.02302684348070494</v>
+      </c>
+      <c r="G47">
+        <v>-0.05639275225492037</v>
+      </c>
+      <c r="H47">
+        <v>0.001391875969223951</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02199141428827719</v>
+        <v>0.01966148358544763</v>
       </c>
       <c r="C48">
-        <v>-0.003528792816978147</v>
+        <v>0.01793385049687791</v>
       </c>
       <c r="D48">
-        <v>0.06798774219348942</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07701818016052571</v>
+      </c>
+      <c r="E48">
+        <v>-0.05620383631299773</v>
+      </c>
+      <c r="F48">
+        <v>0.01558938143632621</v>
+      </c>
+      <c r="G48">
+        <v>-0.01368342765484511</v>
+      </c>
+      <c r="H48">
+        <v>-0.05189033317722955</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07873483376098186</v>
+        <v>0.06339558929334442</v>
       </c>
       <c r="C50">
-        <v>-0.05771807763065358</v>
+        <v>0.0676740673683747</v>
       </c>
       <c r="D50">
-        <v>0.0620164149573668</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05616906394089103</v>
+      </c>
+      <c r="E50">
+        <v>-0.0475361459180079</v>
+      </c>
+      <c r="F50">
+        <v>-0.04186034508968603</v>
+      </c>
+      <c r="G50">
+        <v>0.003611522725519809</v>
+      </c>
+      <c r="H50">
+        <v>-0.03082531225739933</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.008005866300744006</v>
+        <v>0.008069824311589792</v>
       </c>
       <c r="C51">
-        <v>-0.01127824288334118</v>
+        <v>0.01580133477369606</v>
       </c>
       <c r="D51">
-        <v>0.08068612855562206</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08722222727604818</v>
+      </c>
+      <c r="E51">
+        <v>-0.03392868232489658</v>
+      </c>
+      <c r="F51">
+        <v>0.003591180451197537</v>
+      </c>
+      <c r="G51">
+        <v>0.001925909361970215</v>
+      </c>
+      <c r="H51">
+        <v>-0.08057357441687024</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.07866032724027058</v>
+        <v>0.08927715932986878</v>
       </c>
       <c r="C53">
-        <v>-0.08039000751023904</v>
+        <v>0.09553403809849598</v>
       </c>
       <c r="D53">
-        <v>0.01418173383601842</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.0009768106401388094</v>
+      </c>
+      <c r="E53">
+        <v>-0.09796785039944378</v>
+      </c>
+      <c r="F53">
+        <v>-0.02825026984672823</v>
+      </c>
+      <c r="G53">
+        <v>-0.09565751615781491</v>
+      </c>
+      <c r="H53">
+        <v>0.03395158776835222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.03380781069698687</v>
+        <v>0.02697643867509531</v>
       </c>
       <c r="C54">
-        <v>-0.01970352722284601</v>
+        <v>0.03353277073223567</v>
       </c>
       <c r="D54">
-        <v>0.08005673342656121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.08647342990029178</v>
+      </c>
+      <c r="E54">
+        <v>-0.05061683156498217</v>
+      </c>
+      <c r="F54">
+        <v>0.01975801879671945</v>
+      </c>
+      <c r="G54">
+        <v>-0.007747310686661746</v>
+      </c>
+      <c r="H54">
+        <v>-0.1107370555534376</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08703569485812294</v>
+        <v>0.08685244796170197</v>
       </c>
       <c r="C55">
-        <v>-0.05782390957059736</v>
+        <v>0.07733969264377095</v>
       </c>
       <c r="D55">
-        <v>-0.004665235477778345</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01486446037754424</v>
+      </c>
+      <c r="E55">
+        <v>-0.05866519875437157</v>
+      </c>
+      <c r="F55">
+        <v>-0.03118647142929665</v>
+      </c>
+      <c r="G55">
+        <v>-0.04418605079773296</v>
+      </c>
+      <c r="H55">
+        <v>0.0290119404496576</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1390288109624486</v>
+        <v>0.1366040536784996</v>
       </c>
       <c r="C56">
-        <v>-0.09644640592497483</v>
+        <v>0.1216349020712797</v>
       </c>
       <c r="D56">
-        <v>0.003022830709731953</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01539722426647469</v>
+      </c>
+      <c r="E56">
+        <v>-0.05846161983842887</v>
+      </c>
+      <c r="F56">
+        <v>-0.01981351322072595</v>
+      </c>
+      <c r="G56">
+        <v>-0.06327365500281849</v>
+      </c>
+      <c r="H56">
+        <v>0.02983753355032742</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.03867388313128133</v>
+        <v>0.03775592209882088</v>
       </c>
       <c r="C58">
-        <v>0.02006422496127404</v>
+        <v>0.02055254455946808</v>
       </c>
       <c r="D58">
-        <v>0.4055688161925313</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.376545361258854</v>
+      </c>
+      <c r="E58">
+        <v>-0.2242689836062455</v>
+      </c>
+      <c r="F58">
+        <v>-0.1210433765174026</v>
+      </c>
+      <c r="G58">
+        <v>0.4058398788554432</v>
+      </c>
+      <c r="H58">
+        <v>0.3670542050954516</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1326825638495103</v>
+        <v>0.1640422934197051</v>
       </c>
       <c r="C59">
-        <v>0.2033716384518712</v>
+        <v>-0.1798055016399011</v>
       </c>
       <c r="D59">
-        <v>0.01753632063509196</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.0457453391094792</v>
+      </c>
+      <c r="E59">
+        <v>-0.01704956071332863</v>
+      </c>
+      <c r="F59">
+        <v>0.03628294664111405</v>
+      </c>
+      <c r="G59">
+        <v>-0.002453098222010354</v>
+      </c>
+      <c r="H59">
+        <v>0.01817626121982923</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.261334199084103</v>
+        <v>0.2372443000640866</v>
       </c>
       <c r="C60">
-        <v>-0.06459815926738656</v>
+        <v>0.0939520871598892</v>
       </c>
       <c r="D60">
-        <v>0.1551118029130406</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1250075891797016</v>
+      </c>
+      <c r="E60">
+        <v>0.3533498244318212</v>
+      </c>
+      <c r="F60">
+        <v>-0.08173051909302352</v>
+      </c>
+      <c r="G60">
+        <v>-0.01176169625703053</v>
+      </c>
+      <c r="H60">
+        <v>0.06332492811418673</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04831170147982933</v>
+        <v>0.04303235940557184</v>
       </c>
       <c r="C61">
-        <v>-0.04760358403334983</v>
+        <v>0.0571477099124904</v>
       </c>
       <c r="D61">
-        <v>0.09857183563735389</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09370198671157051</v>
+      </c>
+      <c r="E61">
+        <v>-0.02183818247234969</v>
+      </c>
+      <c r="F61">
+        <v>0.01081043183059663</v>
+      </c>
+      <c r="G61">
+        <v>-0.02257623329244577</v>
+      </c>
+      <c r="H61">
+        <v>-0.07546341337075255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01619774641172505</v>
+        <v>0.01635207874537142</v>
       </c>
       <c r="C63">
-        <v>-0.01523216114474866</v>
+        <v>0.02922546654218102</v>
       </c>
       <c r="D63">
-        <v>0.05664737164666438</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06905949846854718</v>
+      </c>
+      <c r="E63">
+        <v>-0.05229984799778386</v>
+      </c>
+      <c r="F63">
+        <v>-0.0239317252356975</v>
+      </c>
+      <c r="G63">
+        <v>0.004858482502756953</v>
+      </c>
+      <c r="H63">
+        <v>-0.04375812679311924</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05726970764088004</v>
+        <v>0.05733439363818818</v>
       </c>
       <c r="C64">
-        <v>-0.05885888082751031</v>
+        <v>0.07431879446726293</v>
       </c>
       <c r="D64">
-        <v>0.06340653504042217</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05499470827056584</v>
+      </c>
+      <c r="E64">
+        <v>-0.04303471977810022</v>
+      </c>
+      <c r="F64">
+        <v>0.02041523426595128</v>
+      </c>
+      <c r="G64">
+        <v>-0.04726062591076892</v>
+      </c>
+      <c r="H64">
+        <v>-0.04124521967279903</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06172945584365971</v>
+        <v>0.05378365049140902</v>
       </c>
       <c r="C65">
-        <v>-0.00363379852520377</v>
+        <v>0.02296672516665814</v>
       </c>
       <c r="D65">
-        <v>0.1064890839990903</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1148951552758985</v>
+      </c>
+      <c r="E65">
+        <v>-0.009592044420548736</v>
+      </c>
+      <c r="F65">
+        <v>-0.01978817224610471</v>
+      </c>
+      <c r="G65">
+        <v>0.03775933706569798</v>
+      </c>
+      <c r="H65">
+        <v>0.02691235593352134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04802263710733191</v>
+        <v>0.04577285195118089</v>
       </c>
       <c r="C66">
-        <v>-0.05483637880411461</v>
+        <v>0.07073319107319143</v>
       </c>
       <c r="D66">
-        <v>0.1125044222416503</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1277598427794389</v>
+      </c>
+      <c r="E66">
+        <v>-0.02507284438815992</v>
+      </c>
+      <c r="F66">
+        <v>0.0122834902643389</v>
+      </c>
+      <c r="G66">
+        <v>0.003154224177789215</v>
+      </c>
+      <c r="H66">
+        <v>-0.06241622354713307</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.04891810425021505</v>
+        <v>0.0403590680829369</v>
       </c>
       <c r="C67">
-        <v>-0.03603380554296203</v>
+        <v>0.03253913366879235</v>
       </c>
       <c r="D67">
-        <v>0.03389479352574215</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.02773571043427757</v>
+      </c>
+      <c r="E67">
+        <v>-0.02662849841847775</v>
+      </c>
+      <c r="F67">
+        <v>-0.002681970182576908</v>
+      </c>
+      <c r="G67">
+        <v>0.03258486840549966</v>
+      </c>
+      <c r="H67">
+        <v>-0.03628708066946748</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1581929820507034</v>
+        <v>0.1850865113045497</v>
       </c>
       <c r="C68">
-        <v>0.2826192302299679</v>
+        <v>-0.2241249444315232</v>
       </c>
       <c r="D68">
-        <v>-0.02400031494835543</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01202276026833224</v>
+      </c>
+      <c r="E68">
+        <v>-0.05442885077675422</v>
+      </c>
+      <c r="F68">
+        <v>-0.02302201314861346</v>
+      </c>
+      <c r="G68">
+        <v>-0.001400263762202265</v>
+      </c>
+      <c r="H68">
+        <v>0.004411934025025434</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08752332200510522</v>
+        <v>0.08085427917196343</v>
       </c>
       <c r="C69">
-        <v>-0.07661433518152251</v>
+        <v>0.09572702588396018</v>
       </c>
       <c r="D69">
-        <v>0.04710079709715448</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04430809738029388</v>
+      </c>
+      <c r="E69">
+        <v>-0.031142566832033</v>
+      </c>
+      <c r="F69">
+        <v>-0.0005233667022577196</v>
+      </c>
+      <c r="G69">
+        <v>-0.04090987330406942</v>
+      </c>
+      <c r="H69">
+        <v>-0.016876748285299</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1313529097846625</v>
+        <v>0.1696930525043812</v>
       </c>
       <c r="C71">
-        <v>0.2600725922633822</v>
+        <v>-0.229067811350956</v>
       </c>
       <c r="D71">
-        <v>0.01834811546941111</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.036324437997139</v>
+      </c>
+      <c r="E71">
+        <v>-0.05010847062045745</v>
+      </c>
+      <c r="F71">
+        <v>-0.02169678531298158</v>
+      </c>
+      <c r="G71">
+        <v>-0.0437291918617605</v>
+      </c>
+      <c r="H71">
+        <v>-0.01198743531291968</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09904042599754238</v>
+        <v>0.1029656701139178</v>
       </c>
       <c r="C72">
-        <v>-0.04076008086312167</v>
+        <v>0.06090985500244916</v>
       </c>
       <c r="D72">
-        <v>0.09013401602338283</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.09284973094372505</v>
+      </c>
+      <c r="E72">
+        <v>0.02032675478869672</v>
+      </c>
+      <c r="F72">
+        <v>-0.02836714620222089</v>
+      </c>
+      <c r="G72">
+        <v>-0.02721133882109738</v>
+      </c>
+      <c r="H72">
+        <v>-0.02659494608071335</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.3138218823234506</v>
+        <v>0.2706432814157602</v>
       </c>
       <c r="C73">
-        <v>-0.0191089110486264</v>
+        <v>0.07790094061039547</v>
       </c>
       <c r="D73">
-        <v>0.2579518546869575</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.2011601629587499</v>
+      </c>
+      <c r="E73">
+        <v>0.6693046558626218</v>
+      </c>
+      <c r="F73">
+        <v>-0.09455827286550751</v>
+      </c>
+      <c r="G73">
+        <v>0.05029653563537181</v>
+      </c>
+      <c r="H73">
+        <v>0.1066559275069743</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1071925163712988</v>
+        <v>0.1054267998408117</v>
       </c>
       <c r="C74">
-        <v>-0.06744730685214428</v>
+        <v>0.08856868246579323</v>
       </c>
       <c r="D74">
-        <v>0.0266933586892273</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.002614887307951707</v>
+      </c>
+      <c r="E74">
+        <v>-0.08175609470191487</v>
+      </c>
+      <c r="F74">
+        <v>-0.04426314936768781</v>
+      </c>
+      <c r="G74">
+        <v>-0.05188030449454616</v>
+      </c>
+      <c r="H74">
+        <v>0.06573385273649363</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2488704204477216</v>
+        <v>0.2421639355249579</v>
       </c>
       <c r="C75">
-        <v>-0.129759095783953</v>
+        <v>0.1568326354534029</v>
       </c>
       <c r="D75">
-        <v>-0.07546660205116626</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1149042948360327</v>
+      </c>
+      <c r="E75">
+        <v>-0.07725672494388734</v>
+      </c>
+      <c r="F75">
+        <v>0.01695348893274425</v>
+      </c>
+      <c r="G75">
+        <v>-0.07754732843781061</v>
+      </c>
+      <c r="H75">
+        <v>0.1614834530214652</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.125903186159063</v>
+        <v>0.128403066716199</v>
       </c>
       <c r="C76">
-        <v>-0.08058320624826329</v>
+        <v>0.1051807110765359</v>
       </c>
       <c r="D76">
-        <v>-0.01122041838366314</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.02434890268041606</v>
+      </c>
+      <c r="E76">
+        <v>-0.1178349199223381</v>
+      </c>
+      <c r="F76">
+        <v>-0.01242772037769017</v>
+      </c>
+      <c r="G76">
+        <v>-0.06280840993761105</v>
+      </c>
+      <c r="H76">
+        <v>0.03076256559467318</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.07631173507221861</v>
+        <v>0.06750189256649237</v>
       </c>
       <c r="C77">
-        <v>-0.06644435229513772</v>
+        <v>0.07288155673549336</v>
       </c>
       <c r="D77">
-        <v>0.0735280747259287</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1320666437766306</v>
+      </c>
+      <c r="E77">
+        <v>-0.1215199746878963</v>
+      </c>
+      <c r="F77">
+        <v>0.2935652733561287</v>
+      </c>
+      <c r="G77">
+        <v>0.07991539779533098</v>
+      </c>
+      <c r="H77">
+        <v>0.1968317421805263</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03924704637183584</v>
+        <v>0.04201400727868543</v>
       </c>
       <c r="C78">
-        <v>-0.04609147035071648</v>
+        <v>0.06141871062242631</v>
       </c>
       <c r="D78">
-        <v>0.1096371473813888</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1227474739326933</v>
+      </c>
+      <c r="E78">
+        <v>-0.03123886467966526</v>
+      </c>
+      <c r="F78">
+        <v>-0.01859203583675442</v>
+      </c>
+      <c r="G78">
+        <v>-0.03320027606478239</v>
+      </c>
+      <c r="H78">
+        <v>-0.03947054847497273</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.002054519650314249</v>
+        <v>0.041567486891563</v>
       </c>
       <c r="C79">
-        <v>0.001705188258297869</v>
+        <v>0.07753230904291691</v>
       </c>
       <c r="D79">
-        <v>0.01786928726419431</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03854775882212937</v>
+      </c>
+      <c r="E79">
+        <v>-0.1663615647886416</v>
+      </c>
+      <c r="F79">
+        <v>-0.07657514867533165</v>
+      </c>
+      <c r="G79">
+        <v>-0.5017960465762114</v>
+      </c>
+      <c r="H79">
+        <v>0.547250065100789</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03455740289950752</v>
+        <v>0.02806089899584153</v>
       </c>
       <c r="C80">
-        <v>-0.02459650869813291</v>
+        <v>0.04069870406859344</v>
       </c>
       <c r="D80">
-        <v>0.03608589926905326</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03769920484190792</v>
+      </c>
+      <c r="E80">
+        <v>-0.01481547267717144</v>
+      </c>
+      <c r="F80">
+        <v>0.0369684657081013</v>
+      </c>
+      <c r="G80">
+        <v>0.04553872989684125</v>
+      </c>
+      <c r="H80">
+        <v>-0.04259979848178199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1442837961427627</v>
+        <v>0.1339915036432291</v>
       </c>
       <c r="C81">
-        <v>-0.08407953881385305</v>
+        <v>0.110403052456934</v>
       </c>
       <c r="D81">
-        <v>-0.0435726986184433</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07403527119866735</v>
+      </c>
+      <c r="E81">
+        <v>-0.1127030516132106</v>
+      </c>
+      <c r="F81">
+        <v>-0.002363815102724413</v>
+      </c>
+      <c r="G81">
+        <v>-0.05253233030668075</v>
+      </c>
+      <c r="H81">
+        <v>0.05474578611217331</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2840962493360803</v>
+        <v>0.2517260683926192</v>
       </c>
       <c r="C82">
-        <v>-0.2303127889034729</v>
+        <v>0.2270947482419417</v>
       </c>
       <c r="D82">
-        <v>-0.2331584503465876</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2304704663623555</v>
+      </c>
+      <c r="E82">
+        <v>-3.072661869862805e-05</v>
+      </c>
+      <c r="F82">
+        <v>-0.03997529218105615</v>
+      </c>
+      <c r="G82">
+        <v>-0.311307871898463</v>
+      </c>
+      <c r="H82">
+        <v>-0.4505885974535156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.0365049103402719</v>
+        <v>0.02457187830741512</v>
       </c>
       <c r="C83">
-        <v>-0.03916884653939939</v>
+        <v>0.05286970329482718</v>
       </c>
       <c r="D83">
-        <v>0.0647958361892942</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05245175593553202</v>
+      </c>
+      <c r="E83">
+        <v>-0.004357564122437037</v>
+      </c>
+      <c r="F83">
+        <v>0.01979938646130957</v>
+      </c>
+      <c r="G83">
+        <v>-0.001954672349589408</v>
+      </c>
+      <c r="H83">
+        <v>-0.02978701692928693</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>4.556620200374449e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004391933526773263</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.008906267216206062</v>
+      </c>
+      <c r="E84">
+        <v>-0.01006156686841168</v>
+      </c>
+      <c r="F84">
+        <v>-0.005000255248991665</v>
+      </c>
+      <c r="G84">
+        <v>0.006900893290137644</v>
+      </c>
+      <c r="H84">
+        <v>-0.006423879691082199</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1860717167418389</v>
+        <v>0.1668736102797018</v>
       </c>
       <c r="C85">
-        <v>-0.09083471656534638</v>
+        <v>0.1248123407136783</v>
       </c>
       <c r="D85">
-        <v>-0.05447756541586992</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.08273766650544685</v>
+      </c>
+      <c r="E85">
+        <v>-0.03782352272659083</v>
+      </c>
+      <c r="F85">
+        <v>-0.03401829486804944</v>
+      </c>
+      <c r="G85">
+        <v>-0.08565892816615486</v>
+      </c>
+      <c r="H85">
+        <v>0.135168929280843</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01226544325158124</v>
+        <v>0.01853753714857329</v>
       </c>
       <c r="C86">
-        <v>-0.02168796031418949</v>
+        <v>0.01729088382299952</v>
       </c>
       <c r="D86">
-        <v>0.1307051373785815</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1199187188229431</v>
+      </c>
+      <c r="E86">
+        <v>-0.0206675744277271</v>
+      </c>
+      <c r="F86">
+        <v>0.006852452815658478</v>
+      </c>
+      <c r="G86">
+        <v>-0.04193298106936835</v>
+      </c>
+      <c r="H86">
+        <v>-0.06830108854764913</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02673892374729884</v>
+        <v>0.03192628834287046</v>
       </c>
       <c r="C87">
-        <v>2.009419030985891e-05</v>
+        <v>0.02294257381424093</v>
       </c>
       <c r="D87">
-        <v>0.09051357320365237</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.12336114002957</v>
+      </c>
+      <c r="E87">
+        <v>-0.08940269935355422</v>
+      </c>
+      <c r="F87">
+        <v>0.02064923192471095</v>
+      </c>
+      <c r="G87">
+        <v>0.001316130696311421</v>
+      </c>
+      <c r="H87">
+        <v>-0.0361593329967192</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.08778843912011221</v>
+        <v>0.07703123137646839</v>
       </c>
       <c r="C88">
-        <v>-0.05078216772383484</v>
+        <v>0.06141072406758573</v>
       </c>
       <c r="D88">
-        <v>0.04634071014989693</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02981402609670752</v>
+      </c>
+      <c r="E88">
+        <v>-0.0339134871350216</v>
+      </c>
+      <c r="F88">
+        <v>0.001208171143911438</v>
+      </c>
+      <c r="G88">
+        <v>0.0176201044137486</v>
+      </c>
+      <c r="H88">
+        <v>-0.01228641889999533</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1977117317134299</v>
+        <v>0.256205811409375</v>
       </c>
       <c r="C89">
-        <v>0.3620694628411179</v>
+        <v>-0.3562820281136518</v>
       </c>
       <c r="D89">
-        <v>-0.03679726050883207</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.002947665352773003</v>
+      </c>
+      <c r="E89">
+        <v>-0.06160082221549314</v>
+      </c>
+      <c r="F89">
+        <v>0.04472521199466479</v>
+      </c>
+      <c r="G89">
+        <v>-0.01351792196724613</v>
+      </c>
+      <c r="H89">
+        <v>-0.04483127791066021</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1864878970288648</v>
+        <v>0.2257773529820069</v>
       </c>
       <c r="C90">
-        <v>0.3035167480452849</v>
+        <v>-0.2720578448818162</v>
       </c>
       <c r="D90">
-        <v>-0.04305867611901633</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01089565814436898</v>
+      </c>
+      <c r="E90">
+        <v>-0.05215506733068585</v>
+      </c>
+      <c r="F90">
+        <v>-0.005220603870731553</v>
+      </c>
+      <c r="G90">
+        <v>0.02786849278010676</v>
+      </c>
+      <c r="H90">
+        <v>-0.05531846592249343</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1843318560855256</v>
+        <v>0.173409967276916</v>
       </c>
       <c r="C91">
-        <v>-0.1407362852839345</v>
+        <v>0.1588087180484599</v>
       </c>
       <c r="D91">
-        <v>-0.06046127427483879</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08276022762859339</v>
+      </c>
+      <c r="E91">
+        <v>-0.09678434691049823</v>
+      </c>
+      <c r="F91">
+        <v>-0.01691055085813506</v>
+      </c>
+      <c r="G91">
+        <v>-0.06323489153817409</v>
+      </c>
+      <c r="H91">
+        <v>0.1475220907177381</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1570370825023546</v>
+        <v>0.2018836828498363</v>
       </c>
       <c r="C92">
-        <v>0.2983783141565118</v>
+        <v>-0.2815166319343426</v>
       </c>
       <c r="D92">
-        <v>-0.001798449591849294</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01633601517119572</v>
+      </c>
+      <c r="E92">
+        <v>-0.08717698019780831</v>
+      </c>
+      <c r="F92">
+        <v>0.03864797337293299</v>
+      </c>
+      <c r="G92">
+        <v>-0.006435805881567119</v>
+      </c>
+      <c r="H92">
+        <v>-0.0352097337599791</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.215589316515136</v>
+        <v>0.2496405576037811</v>
       </c>
       <c r="C93">
-        <v>0.3186968717874334</v>
+        <v>-0.2863100912043857</v>
       </c>
       <c r="D93">
-        <v>-0.02280830051126678</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.008420891554198099</v>
+      </c>
+      <c r="E93">
+        <v>-0.02614912735397627</v>
+      </c>
+      <c r="F93">
+        <v>-0.0331753151227198</v>
+      </c>
+      <c r="G93">
+        <v>-0.01228379315381914</v>
+      </c>
+      <c r="H93">
+        <v>-0.008210964258225593</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3942366996428399</v>
+        <v>0.343405872810579</v>
       </c>
       <c r="C94">
-        <v>-0.2297285399677397</v>
+        <v>0.2433516733583319</v>
       </c>
       <c r="D94">
-        <v>-0.4636956464319961</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4455860782881124</v>
+      </c>
+      <c r="E94">
+        <v>-0.1160067138650191</v>
+      </c>
+      <c r="F94">
+        <v>0.03090637167048423</v>
+      </c>
+      <c r="G94">
+        <v>0.6091364816482132</v>
+      </c>
+      <c r="H94">
+        <v>-0.02098842715211624</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.0878845888389842</v>
+        <v>0.07494510638607318</v>
       </c>
       <c r="C95">
-        <v>-0.04722865329121918</v>
+        <v>0.05213303986396248</v>
       </c>
       <c r="D95">
-        <v>0.0731727210115521</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.082690650187337</v>
+      </c>
+      <c r="E95">
+        <v>0.1016724228273135</v>
+      </c>
+      <c r="F95">
+        <v>0.9077720940866466</v>
+      </c>
+      <c r="G95">
+        <v>-0.04651129497419088</v>
+      </c>
+      <c r="H95">
+        <v>0.04609489088051431</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1783339398332534</v>
+        <v>0.1696954934865627</v>
       </c>
       <c r="C98">
-        <v>-0.02072773900769725</v>
+        <v>0.05435983393107723</v>
       </c>
       <c r="D98">
-        <v>0.1545864335662794</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1348045135970232</v>
+      </c>
+      <c r="E98">
+        <v>0.2898789662216929</v>
+      </c>
+      <c r="F98">
+        <v>-0.08410624018112033</v>
+      </c>
+      <c r="G98">
+        <v>-0.02165710794246866</v>
+      </c>
+      <c r="H98">
+        <v>0.02332153301314318</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.00335756338263316</v>
+        <v>0.005999946936445628</v>
       </c>
       <c r="C101">
-        <v>-0.009573068334237076</v>
+        <v>0.01943124129023684</v>
       </c>
       <c r="D101">
-        <v>0.05973429666672659</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.07642631311840747</v>
+      </c>
+      <c r="E101">
+        <v>-0.04928689727822094</v>
+      </c>
+      <c r="F101">
+        <v>0.0006905581817458076</v>
+      </c>
+      <c r="G101">
+        <v>-0.02733238117455612</v>
+      </c>
+      <c r="H101">
+        <v>-0.09783079009307748</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1301832361721638</v>
+        <v>0.1168025594961852</v>
       </c>
       <c r="C102">
-        <v>-0.1073095421385977</v>
+        <v>0.1171802687779586</v>
       </c>
       <c r="D102">
-        <v>-0.03337875507440627</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05093319353327876</v>
+      </c>
+      <c r="E102">
+        <v>-0.02946447406909365</v>
+      </c>
+      <c r="F102">
+        <v>0.01975728791803654</v>
+      </c>
+      <c r="G102">
+        <v>-0.05328515793005204</v>
+      </c>
+      <c r="H102">
+        <v>0.001816257466859009</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
